--- a/opset_20/Intel - oneDNN/report_DnnlExecutionProvider_aggregated.xlsx
+++ b/opset_20/Intel - oneDNN/report_DnnlExecutionProvider_aggregated.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DEDEDE"/>
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
+        <fgColor rgb="00DEDEDE"/>
       </patternFill>
     </fill>
     <fill>
@@ -599,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D263"/>
+  <dimension ref="A1:D304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -638,7 +638,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Abs</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -660,7 +660,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AffineGrid</t>
+          <t>Acos</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -682,7 +682,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>And</t>
+          <t>Acosh</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -704,7 +704,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ArgMax</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -714,19 +714,19 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ArgMin</t>
+          <t>AffineGrid</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AveragePool</t>
+          <t>And</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -758,19 +758,19 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>BatchNormalization</t>
+          <t>ArgMax</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -780,19 +780,19 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Bernoulli</t>
+          <t>ArgMin</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -802,19 +802,19 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider,DnnlExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>BitShift</t>
+          <t>Asin</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -836,7 +836,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>BitwiseAnd</t>
+          <t>Asinh</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -858,7 +858,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>BitwiseNot</t>
+          <t>Atan</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>BitwiseOr</t>
+          <t>Atanh</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -902,7 +902,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>BitwiseXor</t>
+          <t>Attention</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -910,21 +910,17 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C14" s="1" t="inlineStr"/>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", Attention, "", -1) : ("X": tensor(float),) -&gt; ("Y": tensor(float),) , Error No Op registered for Attention with domain_version of 20</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>BlackmanWindow</t>
+          <t>AveragePool</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -934,19 +930,19 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Cast</t>
+          <t>BatchNormalization</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -956,19 +952,19 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>CastLike</t>
+          <t>Bernoulli</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -978,19 +974,19 @@
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider,DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>CenterCropPad</t>
+          <t>BitShift</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -1005,14 +1001,14 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Clip</t>
+          <t>BitwiseAnd</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -1034,7 +1030,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Col2Im</t>
+          <t>BitwiseNot</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -1056,7 +1052,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Compress</t>
+          <t>BitwiseOr</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -1078,7 +1074,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Concat</t>
+          <t>BitwiseXor</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -1088,19 +1084,19 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ConcatFromSequence</t>
+          <t>BlackmanWindow</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -1122,7 +1118,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Constant</t>
+          <t>Cast</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -1130,17 +1126,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr"/>
-      <c r="D24" s="4" t="inlineStr">
-        <is>
-          <t>UNKNOWN (no Node event)</t>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ConstantOfShape</t>
+          <t>CastLike</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Ceil</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -1172,19 +1172,19 @@
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ConvInteger</t>
+          <t>Celu</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -1206,7 +1206,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ConvTranspose</t>
+          <t>CenterCropPad</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -1221,14 +1221,14 @@
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>CumSum</t>
+          <t>Clip</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
@@ -1250,7 +1250,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>DFT</t>
+          <t>Col2Im</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -1272,7 +1272,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>DeformConv</t>
+          <t>Compress</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
@@ -1280,17 +1280,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr"/>
-      <c r="D31" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DeformConv(19) node with name ''</t>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>DepthToSpace</t>
+          <t>Concat</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1300,19 +1304,19 @@
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>DequantizeLinear</t>
+          <t>ConcatFromSequence</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
@@ -1320,17 +1324,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr"/>
-      <c r="D33" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", DequantizeLinear, "", -1) : ("x": tensor(uint8),"x_scale": tensor(float),"x_zero_point": tensor(uint8),) -&gt; ("y": tensor(float),) , Error Unrecognized attribute: block_size for operator DequantizeLinear</t>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Det</t>
+          <t>Constant</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -1338,21 +1346,17 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C34" s="1" t="inlineStr"/>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>UNKNOWN (no Node event)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Div</t>
+          <t>ConstantOfShape</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
@@ -1362,19 +1366,19 @@
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Dropout</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -1384,19 +1388,19 @@
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D36" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>DynamicQuantizeLinear</t>
+          <t>ConvInteger</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -1406,19 +1410,19 @@
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Einsum</t>
+          <t>ConvTranspose</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -1440,7 +1444,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Equal</t>
+          <t>Cos</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
@@ -1450,19 +1454,19 @@
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Expand</t>
+          <t>Cosh</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
@@ -1484,7 +1488,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>EyeLike</t>
+          <t>CumSum</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
@@ -1506,7 +1510,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Flatten</t>
+          <t>DFT</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -1528,7 +1532,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>DeformConv</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
@@ -1536,21 +1540,17 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C43" s="1" t="inlineStr"/>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DeformConv(19) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Gather</t>
+          <t>DepthToSpace</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
@@ -1572,7 +1572,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>GatherElements</t>
+          <t>DequantizeLinear</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
@@ -1580,21 +1580,17 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C45" s="1" t="inlineStr"/>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", DequantizeLinear, "", -1) : ("x": tensor(uint8),"x_scale": tensor(float),"x_zero_point": tensor(uint8),) -&gt; ("y": tensor(float),) , Error Unrecognized attribute: block_size for operator DequantizeLinear</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>GatherND</t>
+          <t>Det</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
@@ -1616,7 +1612,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Gelu</t>
+          <t>Div</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
@@ -1638,7 +1634,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Gemm</t>
+          <t>Dropout</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
@@ -1648,19 +1644,19 @@
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>GlobalAveragePool</t>
+          <t>DynamicQuantizeLinear</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
@@ -1682,7 +1678,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>GlobalMaxPool</t>
+          <t>Einsum</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
@@ -1692,19 +1688,19 @@
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Greater</t>
+          <t>Elu</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
@@ -1726,7 +1722,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>GreaterOrEqual</t>
+          <t>Equal</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
@@ -1748,7 +1744,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>GridSample</t>
+          <t>Erf</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
@@ -1770,7 +1766,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>GroupNormalization</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr">
@@ -1778,17 +1774,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr"/>
-      <c r="D54" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", GroupNormalization, "", -1) : ("X": tensor(float),"scale": tensor(float),"B": tensor(float),) -&gt; ("Y": tensor(float),) , Error Unrecognized attribute: stash_type for operator GroupNormalization</t>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>HammingWindow</t>
+          <t>Expand</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr">
@@ -1810,7 +1810,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>HannWindow</t>
+          <t>EyeLike</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr">
@@ -1832,7 +1832,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>HardSigmoid</t>
+          <t>Flatten</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr">
@@ -1854,7 +1854,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>HardSwish</t>
+          <t>Floor</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
@@ -1864,19 +1864,19 @@
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider,DnnlExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Hardmax</t>
+          <t>GRU</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr">
@@ -1898,7 +1898,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Gather</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
@@ -1920,7 +1920,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>If</t>
+          <t>GatherElements</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
@@ -1942,7 +1942,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>ImageDecoder</t>
+          <t>GatherND</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
@@ -1950,17 +1950,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C62" s="1" t="inlineStr"/>
-      <c r="D62" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ImageDecoder(20) node with name ''</t>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>InstanceNormalization</t>
+          <t>Gelu</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
@@ -1970,19 +1974,19 @@
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D63" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>IsInf</t>
+          <t>Gemm</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
@@ -1992,19 +1996,19 @@
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D64" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>IsNaN</t>
+          <t>GlobalAveragePool</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr">
@@ -2014,19 +2018,19 @@
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>LRN</t>
+          <t>GlobalLpPool</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr">
@@ -2036,19 +2040,19 @@
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>GlobalMaxPool</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr">
@@ -2058,19 +2062,19 @@
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D67" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>LayerNormalization</t>
+          <t>Greater</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr">
@@ -2080,19 +2084,19 @@
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D68" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Less</t>
+          <t>GreaterOrEqual</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr">
@@ -2114,7 +2118,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>LessOrEqual</t>
+          <t>GridSample</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
@@ -2124,19 +2128,19 @@
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Loop</t>
+          <t>GroupNormalization</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
@@ -2144,21 +2148,17 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C71" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D71" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C71" s="1" t="inlineStr"/>
+      <c r="D71" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", GroupNormalization, "", -1) : ("X": tensor(float),"scale": tensor(float),"B": tensor(float),) -&gt; ("Y": tensor(float),) , Error Unrecognized attribute: stash_type for operator GroupNormalization</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>LpNormalization</t>
+          <t>HammingWindow</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>LpPool</t>
+          <t>HannWindow</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr">
@@ -2202,7 +2202,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>MatMul</t>
+          <t>HardSigmoid</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr">
@@ -2212,19 +2212,19 @@
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>MatMulInteger</t>
+          <t>HardSwish</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr">
@@ -2234,19 +2234,19 @@
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>CPUExecutionProvider,DnnlExecutionProvider</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Hardmax</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr">
@@ -2268,7 +2268,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>MaxPool</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr">
@@ -2278,19 +2278,19 @@
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D77" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>MaxRoiPool</t>
+          <t>If</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr">
@@ -2312,7 +2312,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>MaxUnpool</t>
+          <t>ImageDecoder</t>
         </is>
       </c>
       <c r="B79" s="1" t="inlineStr">
@@ -2320,21 +2320,17 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C79" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D79" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C79" s="1" t="inlineStr"/>
+      <c r="D79" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ImageDecoder(20) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Mean</t>
+          <t>InstanceNormalization</t>
         </is>
       </c>
       <c r="B80" s="1" t="inlineStr">
@@ -2356,7 +2352,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>MeanVarianceNormalization</t>
+          <t>IsInf</t>
         </is>
       </c>
       <c r="B81" s="1" t="inlineStr">
@@ -2378,7 +2374,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>MelWeightMatrix</t>
+          <t>IsNaN</t>
         </is>
       </c>
       <c r="B82" s="1" t="inlineStr">
@@ -2400,7 +2396,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Min</t>
+          <t>LRN</t>
         </is>
       </c>
       <c r="B83" s="1" t="inlineStr">
@@ -2410,19 +2406,19 @@
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D83" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Mod</t>
+          <t>LSTM</t>
         </is>
       </c>
       <c r="B84" s="1" t="inlineStr">
@@ -2444,7 +2440,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Mul</t>
+          <t>LayerNormalization</t>
         </is>
       </c>
       <c r="B85" s="1" t="inlineStr">
@@ -2454,19 +2450,19 @@
       </c>
       <c r="C85" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Multinomial</t>
+          <t>LeakyRelu</t>
         </is>
       </c>
       <c r="B86" s="1" t="inlineStr">
@@ -2476,19 +2472,19 @@
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D86" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>NegativeLogLikelihoodLoss</t>
+          <t>Less</t>
         </is>
       </c>
       <c r="B87" s="1" t="inlineStr">
@@ -2498,19 +2494,19 @@
       </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider,DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D87" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>NonMaxSuppression</t>
+          <t>LessOrEqual</t>
         </is>
       </c>
       <c r="B88" s="1" t="inlineStr">
@@ -2520,19 +2516,19 @@
       </c>
       <c r="C88" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D88" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>NonZero</t>
+          <t>Log</t>
         </is>
       </c>
       <c r="B89" s="1" t="inlineStr">
@@ -2542,19 +2538,19 @@
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D89" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Not</t>
+          <t>LogSoftmax</t>
         </is>
       </c>
       <c r="B90" s="1" t="inlineStr">
@@ -2576,7 +2572,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Not</t>
+          <t>Loop</t>
         </is>
       </c>
       <c r="B91" s="1" t="inlineStr">
@@ -2598,7 +2594,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>OneHot</t>
+          <t>LpNormalization</t>
         </is>
       </c>
       <c r="B92" s="1" t="inlineStr">
@@ -2620,7 +2616,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Optional</t>
+          <t>LpPool</t>
         </is>
       </c>
       <c r="B93" s="1" t="inlineStr">
@@ -2642,7 +2638,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>OptionalGetElement</t>
+          <t>MatMul</t>
         </is>
       </c>
       <c r="B94" s="1" t="inlineStr">
@@ -2652,19 +2648,19 @@
       </c>
       <c r="C94" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D94" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>OptionalHasElement</t>
+          <t>MatMulInteger</t>
         </is>
       </c>
       <c r="B95" s="1" t="inlineStr">
@@ -2686,7 +2682,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Or</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="B96" s="1" t="inlineStr">
@@ -2708,7 +2704,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>PRelu</t>
+          <t>MaxPool</t>
         </is>
       </c>
       <c r="B97" s="1" t="inlineStr">
@@ -2718,19 +2714,19 @@
       </c>
       <c r="C97" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D97" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Pad</t>
+          <t>MaxRoiPool</t>
         </is>
       </c>
       <c r="B98" s="1" t="inlineStr">
@@ -2752,7 +2748,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Pow</t>
+          <t>MaxUnpool</t>
         </is>
       </c>
       <c r="B99" s="1" t="inlineStr">
@@ -2774,7 +2770,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>QLinearConv</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="B100" s="1" t="inlineStr">
@@ -2796,7 +2792,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>QLinearMatMul</t>
+          <t>MeanVarianceNormalization</t>
         </is>
       </c>
       <c r="B101" s="1" t="inlineStr">
@@ -2818,7 +2814,7 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>QuantizeLinear</t>
+          <t>MelWeightMatrix</t>
         </is>
       </c>
       <c r="B102" s="1" t="inlineStr">
@@ -2840,7 +2836,7 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>Min</t>
         </is>
       </c>
       <c r="B103" s="1" t="inlineStr">
@@ -2862,7 +2858,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>RandomNormal</t>
+          <t>Mish</t>
         </is>
       </c>
       <c r="B104" s="1" t="inlineStr">
@@ -2872,19 +2868,19 @@
       </c>
       <c r="C104" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D104" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>RandomNormalLike</t>
+          <t>Mod</t>
         </is>
       </c>
       <c r="B105" s="1" t="inlineStr">
@@ -2906,7 +2902,7 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>RandomUniform</t>
+          <t>Mul</t>
         </is>
       </c>
       <c r="B106" s="1" t="inlineStr">
@@ -2916,19 +2912,19 @@
       </c>
       <c r="C106" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D106" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>RandomUniformLike</t>
+          <t>Multinomial</t>
         </is>
       </c>
       <c r="B107" s="1" t="inlineStr">
@@ -2950,7 +2946,7 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Range</t>
+          <t>Neg</t>
         </is>
       </c>
       <c r="B108" s="1" t="inlineStr">
@@ -2972,7 +2968,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>ReduceL1</t>
+          <t>NegativeLogLikelihoodLoss</t>
         </is>
       </c>
       <c r="B109" s="1" t="inlineStr">
@@ -2982,19 +2978,19 @@
       </c>
       <c r="C109" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D109" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider,DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D109" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>ReduceL2</t>
+          <t>NonMaxSuppression</t>
         </is>
       </c>
       <c r="B110" s="1" t="inlineStr">
@@ -3004,19 +3000,19 @@
       </c>
       <c r="C110" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D110" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>ReduceLogSum</t>
+          <t>NonZero</t>
         </is>
       </c>
       <c r="B111" s="1" t="inlineStr">
@@ -3026,19 +3022,19 @@
       </c>
       <c r="C111" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D111" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D111" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>ReduceLogSumExp</t>
+          <t>Not</t>
         </is>
       </c>
       <c r="B112" s="1" t="inlineStr">
@@ -3048,19 +3044,19 @@
       </c>
       <c r="C112" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D112" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D112" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>ReduceMax</t>
+          <t>OneHot</t>
         </is>
       </c>
       <c r="B113" s="1" t="inlineStr">
@@ -3070,19 +3066,19 @@
       </c>
       <c r="C113" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D113" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D113" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>ReduceMean</t>
+          <t>Optional</t>
         </is>
       </c>
       <c r="B114" s="1" t="inlineStr">
@@ -3092,19 +3088,19 @@
       </c>
       <c r="C114" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D114" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D114" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>ReduceMin</t>
+          <t>OptionalGetElement</t>
         </is>
       </c>
       <c r="B115" s="1" t="inlineStr">
@@ -3114,19 +3110,19 @@
       </c>
       <c r="C115" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D115" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D115" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>ReduceProd</t>
+          <t>OptionalHasElement</t>
         </is>
       </c>
       <c r="B116" s="1" t="inlineStr">
@@ -3136,19 +3132,19 @@
       </c>
       <c r="C116" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D116" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D116" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>ReduceSum</t>
+          <t>Or</t>
         </is>
       </c>
       <c r="B117" s="1" t="inlineStr">
@@ -3158,19 +3154,19 @@
       </c>
       <c r="C117" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D117" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D117" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>ReduceSumSquare</t>
+          <t>PRelu</t>
         </is>
       </c>
       <c r="B118" s="1" t="inlineStr">
@@ -3180,19 +3176,19 @@
       </c>
       <c r="C118" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D118" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D118" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>RegexFullMatch</t>
+          <t>Pad</t>
         </is>
       </c>
       <c r="B119" s="1" t="inlineStr">
@@ -3214,7 +3210,7 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Reshape</t>
+          <t>Pow</t>
         </is>
       </c>
       <c r="B120" s="1" t="inlineStr">
@@ -3224,19 +3220,19 @@
       </c>
       <c r="C120" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D120" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Resize</t>
+          <t>QLinearConv</t>
         </is>
       </c>
       <c r="B121" s="1" t="inlineStr">
@@ -3258,7 +3254,7 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>ReverseSequence</t>
+          <t>QLinearMatMul</t>
         </is>
       </c>
       <c r="B122" s="1" t="inlineStr">
@@ -3280,7 +3276,7 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>RoiAlign</t>
+          <t>QuantizeLinear</t>
         </is>
       </c>
       <c r="B123" s="1" t="inlineStr">
@@ -3302,7 +3298,7 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>STFT</t>
+          <t>RMSNormalization</t>
         </is>
       </c>
       <c r="B124" s="1" t="inlineStr">
@@ -3310,21 +3306,17 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C124" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D124" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C124" s="1" t="inlineStr"/>
+      <c r="D124" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", RMSNormalization, "", -1) : ("X": tensor(float),) -&gt; ("Y": tensor(float),) , Error No Op registered for RMSNormalization with domain_version of 20</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Scan</t>
+          <t>RNN</t>
         </is>
       </c>
       <c r="B125" s="1" t="inlineStr">
@@ -3346,7 +3338,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>ScatterElements</t>
+          <t>RandomNormal</t>
         </is>
       </c>
       <c r="B126" s="1" t="inlineStr">
@@ -3368,7 +3360,7 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>ScatterND</t>
+          <t>RandomNormalLike</t>
         </is>
       </c>
       <c r="B127" s="1" t="inlineStr">
@@ -3390,7 +3382,7 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>SequenceAt</t>
+          <t>RandomUniform</t>
         </is>
       </c>
       <c r="B128" s="1" t="inlineStr">
@@ -3412,7 +3404,7 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>SequenceConstruct</t>
+          <t>RandomUniformLike</t>
         </is>
       </c>
       <c r="B129" s="1" t="inlineStr">
@@ -3434,7 +3426,7 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>SequenceEmpty</t>
+          <t>Range</t>
         </is>
       </c>
       <c r="B130" s="1" t="inlineStr">
@@ -3456,7 +3448,7 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>SequenceErase</t>
+          <t>Reciprocal</t>
         </is>
       </c>
       <c r="B131" s="1" t="inlineStr">
@@ -3478,7 +3470,7 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>SequenceInsert</t>
+          <t>ReduceL1</t>
         </is>
       </c>
       <c r="B132" s="1" t="inlineStr">
@@ -3488,19 +3480,19 @@
       </c>
       <c r="C132" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D132" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>SequenceLength</t>
+          <t>ReduceL2</t>
         </is>
       </c>
       <c r="B133" s="1" t="inlineStr">
@@ -3510,19 +3502,19 @@
       </c>
       <c r="C133" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D133" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>SequenceMap</t>
+          <t>ReduceLogSum</t>
         </is>
       </c>
       <c r="B134" s="1" t="inlineStr">
@@ -3532,19 +3524,19 @@
       </c>
       <c r="C134" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D134" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>ReduceLogSumExp</t>
         </is>
       </c>
       <c r="B135" s="1" t="inlineStr">
@@ -3552,17 +3544,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C135" s="1" t="inlineStr"/>
-      <c r="D135" s="4" t="inlineStr">
-        <is>
-          <t>UNKNOWN (no Node event)</t>
+      <c r="C135" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Size</t>
+          <t>ReduceMax</t>
         </is>
       </c>
       <c r="B136" s="1" t="inlineStr">
@@ -3572,19 +3568,19 @@
       </c>
       <c r="C136" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D136" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Slice</t>
+          <t>ReduceMean</t>
         </is>
       </c>
       <c r="B137" s="1" t="inlineStr">
@@ -3594,19 +3590,19 @@
       </c>
       <c r="C137" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D137" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>SoftmaxCrossEntropyLoss</t>
+          <t>ReduceMin</t>
         </is>
       </c>
       <c r="B138" s="1" t="inlineStr">
@@ -3616,19 +3612,19 @@
       </c>
       <c r="C138" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider,DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D138" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>SpaceToDepth</t>
+          <t>ReduceProd</t>
         </is>
       </c>
       <c r="B139" s="1" t="inlineStr">
@@ -3638,19 +3634,19 @@
       </c>
       <c r="C139" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D139" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Split</t>
+          <t>ReduceSum</t>
         </is>
       </c>
       <c r="B140" s="1" t="inlineStr">
@@ -3660,19 +3656,19 @@
       </c>
       <c r="C140" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D140" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>SplitToSequence</t>
+          <t>ReduceSumSquare</t>
         </is>
       </c>
       <c r="B141" s="1" t="inlineStr">
@@ -3682,19 +3678,19 @@
       </c>
       <c r="C141" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D141" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Squeeze</t>
+          <t>RegexFullMatch</t>
         </is>
       </c>
       <c r="B142" s="1" t="inlineStr">
@@ -3704,19 +3700,19 @@
       </c>
       <c r="C142" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D142" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>StringConcat</t>
+          <t>Relu</t>
         </is>
       </c>
       <c r="B143" s="1" t="inlineStr">
@@ -3726,19 +3722,19 @@
       </c>
       <c r="C143" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D143" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>StringNormalizer</t>
+          <t>Reshape</t>
         </is>
       </c>
       <c r="B144" s="1" t="inlineStr">
@@ -3748,19 +3744,19 @@
       </c>
       <c r="C144" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D144" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>StringSplit</t>
+          <t>Resize</t>
         </is>
       </c>
       <c r="B145" s="1" t="inlineStr">
@@ -3782,7 +3778,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Sub</t>
+          <t>ReverseSequence</t>
         </is>
       </c>
       <c r="B146" s="1" t="inlineStr">
@@ -3792,19 +3788,19 @@
       </c>
       <c r="C146" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D146" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D146" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Sum</t>
+          <t>RoiAlign</t>
         </is>
       </c>
       <c r="B147" s="1" t="inlineStr">
@@ -3814,19 +3810,19 @@
       </c>
       <c r="C147" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D147" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D147" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>TfIdfVectorizer</t>
+          <t>RotaryEmbedding</t>
         </is>
       </c>
       <c r="B148" s="1" t="inlineStr">
@@ -3834,21 +3830,17 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C148" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D148" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C148" s="1" t="inlineStr"/>
+      <c r="D148" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", RotaryEmbedding, "", -1) : ("X": tensor(float),) -&gt; ("Y": tensor(float),) , Error No Op registered for RotaryEmbedding with domain_version of 20</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Tile</t>
+          <t>Round</t>
         </is>
       </c>
       <c r="B149" s="1" t="inlineStr">
@@ -3858,19 +3850,19 @@
       </c>
       <c r="C149" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D149" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>TopK</t>
+          <t>STFT</t>
         </is>
       </c>
       <c r="B150" s="1" t="inlineStr">
@@ -3892,7 +3884,7 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Transpose</t>
+          <t>Scan</t>
         </is>
       </c>
       <c r="B151" s="1" t="inlineStr">
@@ -3902,19 +3894,19 @@
       </c>
       <c r="C151" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D151" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D151" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Trilu</t>
+          <t>Scatter</t>
         </is>
       </c>
       <c r="B152" s="1" t="inlineStr">
@@ -3922,21 +3914,17 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C152" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D152" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C152" s="1" t="inlineStr"/>
+      <c r="D152" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", Scatter, "", -1) : ("data": tensor(float),"indices": tensor(int64),"updates": tensor(float),) -&gt; ("output": tensor(float),) , Error Op registered for Scatter is deprecated in domain_version of 20</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Unique</t>
+          <t>ScatterElements</t>
         </is>
       </c>
       <c r="B153" s="1" t="inlineStr">
@@ -3958,7 +3946,7 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Unsqueeze</t>
+          <t>ScatterND</t>
         </is>
       </c>
       <c r="B154" s="1" t="inlineStr">
@@ -3980,7 +3968,7 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Where</t>
+          <t>Selu</t>
         </is>
       </c>
       <c r="B155" s="1" t="inlineStr">
@@ -4002,7 +3990,7 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Xor</t>
+          <t>SequenceAt</t>
         </is>
       </c>
       <c r="B156" s="1" t="inlineStr">
@@ -4024,7 +4012,7 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Attention</t>
+          <t>SequenceConstruct</t>
         </is>
       </c>
       <c r="B157" s="1" t="inlineStr">
@@ -4039,14 +4027,14 @@
       </c>
       <c r="D157" s="3" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BeamSearch</t>
+          <t>SequenceEmpty</t>
         </is>
       </c>
       <c r="B158" s="1" t="inlineStr">
@@ -4061,14 +4049,14 @@
       </c>
       <c r="D158" s="3" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BiasAdd</t>
+          <t>SequenceErase</t>
         </is>
       </c>
       <c r="B159" s="1" t="inlineStr">
@@ -4076,17 +4064,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C159" s="1" t="inlineStr"/>
-      <c r="D159" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasAdd(1) node with name ''</t>
+      <c r="C159" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D159" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BiasDropout</t>
+          <t>SequenceInsert</t>
         </is>
       </c>
       <c r="B160" s="1" t="inlineStr">
@@ -4094,17 +4086,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C160" s="1" t="inlineStr"/>
-      <c r="D160" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasDropout(1) node with name ''</t>
+      <c r="C160" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D160" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BiasGelu</t>
+          <t>SequenceLength</t>
         </is>
       </c>
       <c r="B161" s="1" t="inlineStr">
@@ -4114,19 +4110,19 @@
       </c>
       <c r="C161" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D161" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D161" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BiasSoftmax</t>
+          <t>SequenceMap</t>
         </is>
       </c>
       <c r="B162" s="1" t="inlineStr">
@@ -4134,17 +4130,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C162" s="1" t="inlineStr"/>
-      <c r="D162" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasSoftmax(1) node with name ''</t>
+      <c r="C162" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D162" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BiasSplitGelu</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B163" s="1" t="inlineStr">
@@ -4155,14 +4155,14 @@
       <c r="C163" s="1" t="inlineStr"/>
       <c r="D163" s="5" t="inlineStr">
         <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasSplitGelu(1) node with name ''</t>
+          <t>UNKNOWN (no Node event)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BifurcationDetector</t>
+          <t>Shrink</t>
         </is>
       </c>
       <c r="B164" s="1" t="inlineStr">
@@ -4177,14 +4177,14 @@
       </c>
       <c r="D164" s="3" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BitmaskBiasDropout</t>
+          <t>Sigmoid</t>
         </is>
       </c>
       <c r="B165" s="1" t="inlineStr">
@@ -4192,17 +4192,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C165" s="1" t="inlineStr"/>
-      <c r="D165" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BitmaskBiasDropout(1) node with name ''</t>
+      <c r="C165" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BitmaskDropout</t>
+          <t>Sign</t>
         </is>
       </c>
       <c r="B166" s="1" t="inlineStr">
@@ -4210,17 +4214,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C166" s="1" t="inlineStr"/>
-      <c r="D166" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BitmaskDropout(1) node with name ''</t>
+      <c r="C166" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D166" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.CDist</t>
+          <t>Sin</t>
         </is>
       </c>
       <c r="B167" s="1" t="inlineStr">
@@ -4235,14 +4243,14 @@
       </c>
       <c r="D167" s="3" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.ComplexMul</t>
+          <t>Sinh</t>
         </is>
       </c>
       <c r="B168" s="1" t="inlineStr">
@@ -4250,17 +4258,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C168" s="1" t="inlineStr"/>
-      <c r="D168" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ComplexMul(1) node with name ''</t>
+      <c r="C168" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D168" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.ComplexMulConj</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="B169" s="1" t="inlineStr">
@@ -4268,17 +4280,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C169" s="1" t="inlineStr"/>
-      <c r="D169" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ComplexMulConj(1) node with name ''</t>
+      <c r="C169" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D169" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.ConvTransposeWithDynamicPads</t>
+          <t>Slice</t>
         </is>
       </c>
       <c r="B170" s="1" t="inlineStr">
@@ -4293,14 +4309,14 @@
       </c>
       <c r="D170" s="3" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.CropAndResize</t>
+          <t>Softmax</t>
         </is>
       </c>
       <c r="B171" s="1" t="inlineStr">
@@ -4310,19 +4326,19 @@
       </c>
       <c r="C171" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D171" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DecoderAttention</t>
+          <t>SoftmaxCrossEntropyLoss</t>
         </is>
       </c>
       <c r="B172" s="1" t="inlineStr">
@@ -4330,17 +4346,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C172" s="1" t="inlineStr"/>
-      <c r="D172" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DecoderAttention(1) node with name ''</t>
+      <c r="C172" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider,DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D172" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DecoderMaskedMultiHeadAttention</t>
+          <t>Softplus</t>
         </is>
       </c>
       <c r="B173" s="1" t="inlineStr">
@@ -4350,19 +4370,19 @@
       </c>
       <c r="C173" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D173" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DecoderMaskedSelfAttention</t>
+          <t>Softsign</t>
         </is>
       </c>
       <c r="B174" s="1" t="inlineStr">
@@ -4370,17 +4390,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C174" s="1" t="inlineStr"/>
-      <c r="D174" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", com.microsoft.DecoderMaskedSelfAttention, "", -1) : ("X": tensor(float),) -&gt; ("Y": tensor(float),) , Error No Op registered for com.microsoft.DecoderMaskedSelfAttention with domain_version of 20</t>
+      <c r="C174" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D174" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DequantizeBFP</t>
+          <t>SpaceToDepth</t>
         </is>
       </c>
       <c r="B175" s="1" t="inlineStr">
@@ -4388,17 +4412,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C175" s="1" t="inlineStr"/>
-      <c r="D175" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DequantizeBFP(1) node with name ''</t>
+      <c r="C175" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D175" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DequantizeLinear</t>
+          <t>Split</t>
         </is>
       </c>
       <c r="B176" s="1" t="inlineStr">
@@ -4408,19 +4436,19 @@
       </c>
       <c r="C176" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D176" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D176" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DequantizeWithOrder</t>
+          <t>SplitToSequence</t>
         </is>
       </c>
       <c r="B177" s="1" t="inlineStr">
@@ -4428,17 +4456,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C177" s="1" t="inlineStr"/>
-      <c r="D177" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DequantizeWithOrder(1) node with name ''</t>
+      <c r="C177" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D177" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DynamicQuantizeLSTM</t>
+          <t>Sqrt</t>
         </is>
       </c>
       <c r="B178" s="1" t="inlineStr">
@@ -4448,19 +4480,19 @@
       </c>
       <c r="C178" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D178" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DynamicQuantizeMatMul</t>
+          <t>Squeeze</t>
         </is>
       </c>
       <c r="B179" s="1" t="inlineStr">
@@ -4470,19 +4502,19 @@
       </c>
       <c r="C179" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D179" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DynamicTimeWarping</t>
+          <t>StringConcat</t>
         </is>
       </c>
       <c r="B180" s="1" t="inlineStr">
@@ -4497,14 +4529,14 @@
       </c>
       <c r="D180" s="3" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.EmbedLayerNormalization</t>
+          <t>StringNormalizer</t>
         </is>
       </c>
       <c r="B181" s="1" t="inlineStr">
@@ -4519,14 +4551,14 @@
       </c>
       <c r="D181" s="3" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.ExpandDims</t>
+          <t>StringSplit</t>
         </is>
       </c>
       <c r="B182" s="1" t="inlineStr">
@@ -4541,14 +4573,14 @@
       </c>
       <c r="D182" s="3" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.FastGelu</t>
+          <t>Sub</t>
         </is>
       </c>
       <c r="B183" s="1" t="inlineStr">
@@ -4570,7 +4602,7 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.FusedConv</t>
+          <t>Sum</t>
         </is>
       </c>
       <c r="B184" s="1" t="inlineStr">
@@ -4580,19 +4612,19 @@
       </c>
       <c r="C184" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D184" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.FusedGemm</t>
+          <t>Tan</t>
         </is>
       </c>
       <c r="B185" s="1" t="inlineStr">
@@ -4607,14 +4639,14 @@
       </c>
       <c r="D185" s="3" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.FusedMatMul</t>
+          <t>Tanh</t>
         </is>
       </c>
       <c r="B186" s="1" t="inlineStr">
@@ -4636,7 +4668,7 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.FusedMatMulActivation</t>
+          <t>TfIdfVectorizer</t>
         </is>
       </c>
       <c r="B187" s="1" t="inlineStr">
@@ -4644,17 +4676,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C187" s="1" t="inlineStr"/>
-      <c r="D187" s="6" t="inlineStr">
-        <is>
-          <t>NOT TESTED (model unavailable)</t>
+      <c r="C187" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D187" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GatedRelativePositionBias</t>
+          <t>ThresholdedRelu</t>
         </is>
       </c>
       <c r="B188" s="1" t="inlineStr">
@@ -4662,17 +4698,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C188" s="1" t="inlineStr"/>
-      <c r="D188" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GatedRelativePositionBias(1) node with name ''</t>
+      <c r="C188" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D188" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GatherBlockQuantized</t>
+          <t>Tile</t>
         </is>
       </c>
       <c r="B189" s="1" t="inlineStr">
@@ -4680,17 +4720,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C189" s="1" t="inlineStr"/>
-      <c r="D189" s="6" t="inlineStr">
-        <is>
-          <t>NOT TESTED (model unavailable)</t>
+      <c r="C189" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D189" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GatherND</t>
+          <t>TopK</t>
         </is>
       </c>
       <c r="B190" s="1" t="inlineStr">
@@ -4705,14 +4749,14 @@
       </c>
       <c r="D190" s="3" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Gelu</t>
+          <t>Transpose</t>
         </is>
       </c>
       <c r="B191" s="1" t="inlineStr">
@@ -4734,7 +4778,7 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GemmFastGelu</t>
+          <t>Trilu</t>
         </is>
       </c>
       <c r="B192" s="1" t="inlineStr">
@@ -4742,17 +4786,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C192" s="1" t="inlineStr"/>
-      <c r="D192" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GemmFastGelu(1) node with name ''</t>
+      <c r="C192" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D192" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GemmFloat8</t>
+          <t>Unique</t>
         </is>
       </c>
       <c r="B193" s="1" t="inlineStr">
@@ -4760,17 +4808,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C193" s="1" t="inlineStr"/>
-      <c r="D193" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GemmFloat8(1) node with name ''</t>
+      <c r="C193" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D193" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GemmaRotaryEmbedding</t>
+          <t>Unsqueeze</t>
         </is>
       </c>
       <c r="B194" s="1" t="inlineStr">
@@ -4778,17 +4830,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C194" s="1" t="inlineStr"/>
-      <c r="D194" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_q) of operator (GemmaRotaryEmbedding) in node () is invalid.</t>
+      <c r="C194" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D194" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GreedySearch</t>
+          <t>Upsample</t>
         </is>
       </c>
       <c r="B195" s="1" t="inlineStr">
@@ -4797,16 +4853,16 @@
         </is>
       </c>
       <c r="C195" s="1" t="inlineStr"/>
-      <c r="D195" s="6" t="inlineStr">
-        <is>
-          <t>NOT TESTED (model unavailable)</t>
+      <c r="D195" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", Upsample, "", -1) : ("X": tensor(float),"scales": tensor(float),) -&gt; ("Y": tensor(float),) , Error Op registered for Upsample is deprecated in domain_version of 10</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GridSample</t>
+          <t>Where</t>
         </is>
       </c>
       <c r="B196" s="1" t="inlineStr">
@@ -4821,14 +4877,14 @@
       </c>
       <c r="D196" s="3" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GroupNorm</t>
+          <t>Xor</t>
         </is>
       </c>
       <c r="B197" s="1" t="inlineStr">
@@ -4836,17 +4892,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C197" s="1" t="inlineStr"/>
-      <c r="D197" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GroupNorm(1) node with name ''</t>
+      <c r="C197" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D197" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GroupQueryAttention</t>
+          <t>com.microsoft.Attention</t>
         </is>
       </c>
       <c r="B198" s="1" t="inlineStr">
@@ -4868,7 +4928,7 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Inverse</t>
+          <t>com.microsoft.BeamSearch</t>
         </is>
       </c>
       <c r="B199" s="1" t="inlineStr">
@@ -4890,7 +4950,7 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Irfft</t>
+          <t>com.microsoft.BiasAdd</t>
         </is>
       </c>
       <c r="B200" s="1" t="inlineStr">
@@ -4899,16 +4959,16 @@
         </is>
       </c>
       <c r="C200" s="1" t="inlineStr"/>
-      <c r="D200" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Irfft(1) node with name ''</t>
+      <c r="D200" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasAdd(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.LongformerAttention</t>
+          <t>com.microsoft.BiasDropout</t>
         </is>
       </c>
       <c r="B201" s="1" t="inlineStr">
@@ -4917,16 +4977,16 @@
         </is>
       </c>
       <c r="C201" s="1" t="inlineStr"/>
-      <c r="D201" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for LongformerAttention(1) node with name ''</t>
+      <c r="D201" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasDropout(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MatMulBnb4</t>
+          <t>com.microsoft.BiasGelu</t>
         </is>
       </c>
       <c r="B202" s="1" t="inlineStr">
@@ -4936,868 +4996,860 @@
       </c>
       <c r="C202" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D202" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
+          <t>com.microsoft.BiasSoftmax</t>
+        </is>
+      </c>
+      <c r="B203" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C203" s="1" t="inlineStr"/>
+      <c r="D203" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasSoftmax(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BiasSplitGelu</t>
+        </is>
+      </c>
+      <c r="B204" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C204" s="1" t="inlineStr"/>
+      <c r="D204" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BiasSplitGelu(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BifurcationDetector</t>
+        </is>
+      </c>
+      <c r="B205" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C205" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D205" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BitmaskBiasDropout</t>
+        </is>
+      </c>
+      <c r="B206" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C206" s="1" t="inlineStr"/>
+      <c r="D206" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BitmaskBiasDropout(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BitmaskDropout</t>
+        </is>
+      </c>
+      <c r="B207" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C207" s="1" t="inlineStr"/>
+      <c r="D207" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for BitmaskDropout(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.CDist</t>
+        </is>
+      </c>
+      <c r="B208" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C208" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D208" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.ComplexMul</t>
+        </is>
+      </c>
+      <c r="B209" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C209" s="1" t="inlineStr"/>
+      <c r="D209" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ComplexMul(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.ComplexMulConj</t>
+        </is>
+      </c>
+      <c r="B210" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C210" s="1" t="inlineStr"/>
+      <c r="D210" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ComplexMulConj(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.ConvTransposeWithDynamicPads</t>
+        </is>
+      </c>
+      <c r="B211" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C211" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D211" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.CropAndResize</t>
+        </is>
+      </c>
+      <c r="B212" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C212" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D212" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DecoderAttention</t>
+        </is>
+      </c>
+      <c r="B213" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C213" s="1" t="inlineStr"/>
+      <c r="D213" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DecoderAttention(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DecoderMaskedMultiHeadAttention</t>
+        </is>
+      </c>
+      <c r="B214" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C214" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D214" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DecoderMaskedSelfAttention</t>
+        </is>
+      </c>
+      <c r="B215" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C215" s="1" t="inlineStr"/>
+      <c r="D215" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", com.microsoft.DecoderMaskedSelfAttention, "", -1) : ("X": tensor(float),) -&gt; ("Y": tensor(float),) , Error No Op registered for com.microsoft.DecoderMaskedSelfAttention with domain_version of 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DequantizeBFP</t>
+        </is>
+      </c>
+      <c r="B216" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C216" s="1" t="inlineStr"/>
+      <c r="D216" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DequantizeBFP(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DequantizeLinear</t>
+        </is>
+      </c>
+      <c r="B217" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C217" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DequantizeWithOrder</t>
+        </is>
+      </c>
+      <c r="B218" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C218" s="1" t="inlineStr"/>
+      <c r="D218" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DequantizeWithOrder(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DynamicQuantizeLSTM</t>
+        </is>
+      </c>
+      <c r="B219" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C219" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D219" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DynamicQuantizeMatMul</t>
+        </is>
+      </c>
+      <c r="B220" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C220" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D220" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DynamicTimeWarping</t>
+        </is>
+      </c>
+      <c r="B221" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C221" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D221" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.EmbedLayerNormalization</t>
+        </is>
+      </c>
+      <c r="B222" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C222" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D222" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.ExpandDims</t>
+        </is>
+      </c>
+      <c r="B223" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C223" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D223" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.FastGelu</t>
+        </is>
+      </c>
+      <c r="B224" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C224" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.FusedConv</t>
+        </is>
+      </c>
+      <c r="B225" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C225" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D225" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.FusedGemm</t>
+        </is>
+      </c>
+      <c r="B226" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C226" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D226" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.FusedMatMul</t>
+        </is>
+      </c>
+      <c r="B227" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C227" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D227" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.FusedMatMulActivation</t>
+        </is>
+      </c>
+      <c r="B228" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C228" s="1" t="inlineStr"/>
+      <c r="D228" s="6" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GatedRelativePositionBias</t>
+        </is>
+      </c>
+      <c r="B229" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C229" s="1" t="inlineStr"/>
+      <c r="D229" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GatedRelativePositionBias(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GatherBlockQuantized</t>
+        </is>
+      </c>
+      <c r="B230" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C230" s="1" t="inlineStr"/>
+      <c r="D230" s="6" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GatherND</t>
+        </is>
+      </c>
+      <c r="B231" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C231" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D231" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Gelu</t>
+        </is>
+      </c>
+      <c r="B232" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C232" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GemmFastGelu</t>
+        </is>
+      </c>
+      <c r="B233" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C233" s="1" t="inlineStr"/>
+      <c r="D233" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GemmFastGelu(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GemmFloat8</t>
+        </is>
+      </c>
+      <c r="B234" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C234" s="1" t="inlineStr"/>
+      <c r="D234" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GemmFloat8(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GemmaRotaryEmbedding</t>
+        </is>
+      </c>
+      <c r="B235" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C235" s="1" t="inlineStr"/>
+      <c r="D235" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_q) of operator (GemmaRotaryEmbedding) in node () is invalid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GreedySearch</t>
+        </is>
+      </c>
+      <c r="B236" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C236" s="1" t="inlineStr"/>
+      <c r="D236" s="6" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GridSample</t>
+        </is>
+      </c>
+      <c r="B237" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C237" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D237" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GroupNorm</t>
+        </is>
+      </c>
+      <c r="B238" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C238" s="1" t="inlineStr"/>
+      <c r="D238" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GroupNorm(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GroupQueryAttention</t>
+        </is>
+      </c>
+      <c r="B239" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C239" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D239" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Inverse</t>
+        </is>
+      </c>
+      <c r="B240" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C240" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D240" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Irfft</t>
+        </is>
+      </c>
+      <c r="B241" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C241" s="1" t="inlineStr"/>
+      <c r="D241" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Irfft(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.LongformerAttention</t>
+        </is>
+      </c>
+      <c r="B242" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C242" s="1" t="inlineStr"/>
+      <c r="D242" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for LongformerAttention(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MatMulBnb4</t>
+        </is>
+      </c>
+      <c r="B243" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C243" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D243" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
           <t>com.microsoft.MatMulFpQ4</t>
         </is>
       </c>
-      <c r="B203" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C203" s="1" t="inlineStr"/>
-      <c r="D203" s="5" t="inlineStr">
+      <c r="B244" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C244" s="1" t="inlineStr"/>
+      <c r="D244" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">FAIL run: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Non-zero status code returned while running MatMulFpQ4 node. Name:'' Status Message: C:\Users\COCO\onnxruntime_1_22_test\onnxruntime\contrib_ops\cpu\matmul_fpq4.cc:55 onnxruntime::contrib::MatMulFpQ4::Compute buf_size &gt; 0 was false. Operator MatMulFpQ4 not yet supported on this hardware platform.
 </t>
         </is>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.MatMulInteger16</t>
-        </is>
-      </c>
-      <c r="B204" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C204" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D204" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.MatMulIntegerToFloat</t>
-        </is>
-      </c>
-      <c r="B205" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C205" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D205" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.MatMulNBits</t>
-        </is>
-      </c>
-      <c r="B206" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C206" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D206" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.MaxpoolWithMask</t>
-        </is>
-      </c>
-      <c r="B207" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C207" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D207" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.MoE</t>
-        </is>
-      </c>
-      <c r="B208" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C208" s="1" t="inlineStr"/>
-      <c r="D208" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MoE(1) node with name ''</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.MulInteger</t>
-        </is>
-      </c>
-      <c r="B209" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C209" s="1" t="inlineStr"/>
-      <c r="D209" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MulInteger(1) node with name ''</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.MultiHeadAttention</t>
-        </is>
-      </c>
-      <c r="B210" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C210" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D210" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.MurmurHash3</t>
-        </is>
-      </c>
-      <c r="B211" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C211" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D211" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.NGramRepeatBlock</t>
-        </is>
-      </c>
-      <c r="B212" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C212" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D212" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.NhwcConv</t>
-        </is>
-      </c>
-      <c r="B213" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C213" s="1" t="inlineStr"/>
-      <c r="D213" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for NhwcConv(1) node with name ''</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.NhwcFusedConv</t>
-        </is>
-      </c>
-      <c r="B214" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C214" s="1" t="inlineStr"/>
-      <c r="D214" s="6" t="inlineStr">
-        <is>
-          <t>NOT TESTED (model unavailable)</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.NhwcMaxPool</t>
-        </is>
-      </c>
-      <c r="B215" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C215" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D215" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.PackedAttention</t>
-        </is>
-      </c>
-      <c r="B216" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C216" s="1" t="inlineStr"/>
-      <c r="D216" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for PackedAttention(1) node with name ''</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.PackedMultiHeadAttention</t>
-        </is>
-      </c>
-      <c r="B217" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C217" s="1" t="inlineStr"/>
-      <c r="D217" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for PackedMultiHeadAttention(1) node with name ''</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.Pad</t>
-        </is>
-      </c>
-      <c r="B218" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C218" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D218" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.QAttention</t>
-        </is>
-      </c>
-      <c r="B219" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C219" s="1" t="inlineStr"/>
-      <c r="D219" s="5" t="inlineStr">
-        <is>
-          <t>FAIL run: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Non-zero status code returned while running DNNL_1244677347082871388_0 node. Name:'DnnlExecutionProvider_DNNL_1244677347082871388_0_0' Status Message: could not create a primitive descriptor for a matmul primitive</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.QGemm</t>
-        </is>
-      </c>
-      <c r="B220" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C220" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D220" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.QLinearAdd</t>
-        </is>
-      </c>
-      <c r="B221" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C221" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D221" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.QLinearAveragePool</t>
-        </is>
-      </c>
-      <c r="B222" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C222" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D222" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.QLinearConcat</t>
-        </is>
-      </c>
-      <c r="B223" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C223" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D223" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.QLinearConv</t>
-        </is>
-      </c>
-      <c r="B224" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C224" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D224" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.QLinearGlobalAveragePool</t>
-        </is>
-      </c>
-      <c r="B225" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C225" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D225" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.QLinearLeakyRelu</t>
-        </is>
-      </c>
-      <c r="B226" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C226" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D226" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.QLinearMul</t>
-        </is>
-      </c>
-      <c r="B227" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C227" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D227" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.QLinearReduceMean</t>
-        </is>
-      </c>
-      <c r="B228" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C228" s="1" t="inlineStr"/>
-      <c r="D228" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QLinearReduceMean(1) node with name ''</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.QLinearSigmoid</t>
-        </is>
-      </c>
-      <c r="B229" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C229" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D229" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.QLinearSoftmax</t>
-        </is>
-      </c>
-      <c r="B230" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C230" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D230" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.QLinearWhere</t>
-        </is>
-      </c>
-      <c r="B231" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C231" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D231" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.QMoE</t>
-        </is>
-      </c>
-      <c r="B232" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C232" s="1" t="inlineStr"/>
-      <c r="D232" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_input) of operator (QMoE) in node () is invalid.</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.QOrderedAttention</t>
-        </is>
-      </c>
-      <c r="B233" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C233" s="1" t="inlineStr"/>
-      <c r="D233" s="6" t="inlineStr">
-        <is>
-          <t>NOT TESTED (model unavailable)</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.QOrderedGelu</t>
-        </is>
-      </c>
-      <c r="B234" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C234" s="1" t="inlineStr"/>
-      <c r="D234" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QOrderedGelu(1) node with name ''</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.QOrderedLayerNormalization</t>
-        </is>
-      </c>
-      <c r="B235" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C235" s="1" t="inlineStr"/>
-      <c r="D235" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QOrderedLayerNormalization(1) node with name ''</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.QOrderedLongformerAttention</t>
-        </is>
-      </c>
-      <c r="B236" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C236" s="1" t="inlineStr"/>
-      <c r="D236" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_mask) of operator (QOrderedLongformerAttention) in node () is invalid.</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.QOrderedMatMul</t>
-        </is>
-      </c>
-      <c r="B237" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C237" s="1" t="inlineStr"/>
-      <c r="D237" s="6" t="inlineStr">
-        <is>
-          <t>NOT TESTED (model unavailable)</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.QuantizeBFP</t>
-        </is>
-      </c>
-      <c r="B238" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C238" s="1" t="inlineStr"/>
-      <c r="D238" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QuantizeBFP(1) node with name ''</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.QuantizeLinear</t>
-        </is>
-      </c>
-      <c r="B239" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C239" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D239" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.QuantizeWithOrder</t>
-        </is>
-      </c>
-      <c r="B240" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C240" s="1" t="inlineStr"/>
-      <c r="D240" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QuantizeWithOrder(1) node with name ''</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.QuickGelu</t>
-        </is>
-      </c>
-      <c r="B241" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C241" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D241" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.Range</t>
-        </is>
-      </c>
-      <c r="B242" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C242" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D242" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.ReduceSumInteger</t>
-        </is>
-      </c>
-      <c r="B243" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C243" s="1" t="inlineStr"/>
-      <c r="D243" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ReduceSumInteger(1) node with name ''</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.RelativePositionBias</t>
-        </is>
-      </c>
-      <c r="B244" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C244" s="1" t="inlineStr"/>
-      <c r="D244" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RelativePositionBias(1) node with name ''</t>
-        </is>
-      </c>
-    </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.RemovePadding</t>
+          <t>com.microsoft.MatMulInteger16</t>
         </is>
       </c>
       <c r="B245" s="1" t="inlineStr">
@@ -5805,17 +5857,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C245" s="1" t="inlineStr"/>
-      <c r="D245" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RemovePadding(1) node with name ''</t>
+      <c r="C245" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D245" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.RestorePadding</t>
+          <t>com.microsoft.MatMulIntegerToFloat</t>
         </is>
       </c>
       <c r="B246" s="1" t="inlineStr">
@@ -5823,17 +5879,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C246" s="1" t="inlineStr"/>
-      <c r="D246" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RestorePadding(1) node with name ''</t>
+      <c r="C246" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D246" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Rfft</t>
+          <t>com.microsoft.MatMulNBits</t>
         </is>
       </c>
       <c r="B247" s="1" t="inlineStr">
@@ -5841,17 +5901,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C247" s="1" t="inlineStr"/>
-      <c r="D247" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Rfft(1) node with name ''</t>
+      <c r="C247" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D247" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.RotaryEmbedding</t>
+          <t>com.microsoft.MaxpoolWithMask</t>
         </is>
       </c>
       <c r="B248" s="1" t="inlineStr">
@@ -5873,7 +5937,7 @@
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.SampleOp</t>
+          <t>com.microsoft.MoE</t>
         </is>
       </c>
       <c r="B249" s="1" t="inlineStr">
@@ -5881,21 +5945,17 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C249" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D249" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C249" s="1" t="inlineStr"/>
+      <c r="D249" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MoE(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Sampling</t>
+          <t>com.microsoft.MulInteger</t>
         </is>
       </c>
       <c r="B250" s="1" t="inlineStr">
@@ -5903,21 +5963,17 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C250" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D250" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C250" s="1" t="inlineStr"/>
+      <c r="D250" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MulInteger(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.SkipGroupNorm</t>
+          <t>com.microsoft.MultiHeadAttention</t>
         </is>
       </c>
       <c r="B251" s="1" t="inlineStr">
@@ -5925,17 +5981,21 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C251" s="1" t="inlineStr"/>
-      <c r="D251" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for SkipGroupNorm(1) node with name ''</t>
+      <c r="C251" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D251" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.SkipLayerNormalization</t>
+          <t>com.microsoft.MurmurHash3</t>
         </is>
       </c>
       <c r="B252" s="1" t="inlineStr">
@@ -5945,19 +6005,19 @@
       </c>
       <c r="C252" s="1" t="inlineStr">
         <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D252" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D252" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.SkipSimplifiedLayerNormalization</t>
+          <t>com.microsoft.NGramRepeatBlock</t>
         </is>
       </c>
       <c r="B253" s="1" t="inlineStr">
@@ -5979,7 +6039,7 @@
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Snpe</t>
+          <t>com.microsoft.NhwcConv</t>
         </is>
       </c>
       <c r="B254" s="1" t="inlineStr">
@@ -5988,16 +6048,16 @@
         </is>
       </c>
       <c r="C254" s="1" t="inlineStr"/>
-      <c r="D254" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Snpe(1) node with name ''</t>
+      <c r="D254" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for NhwcConv(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.SparseAttention</t>
+          <t>com.microsoft.NhwcFusedConv</t>
         </is>
       </c>
       <c r="B255" s="1" t="inlineStr">
@@ -6005,21 +6065,17 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C255" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D255" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C255" s="1" t="inlineStr"/>
+      <c r="D255" s="6" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.SparseToDenseMatMul</t>
+          <t>com.microsoft.NhwcMaxPool</t>
         </is>
       </c>
       <c r="B256" s="1" t="inlineStr">
@@ -6041,7 +6097,7 @@
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Tokenizer</t>
+          <t>com.microsoft.PackedAttention</t>
         </is>
       </c>
       <c r="B257" s="1" t="inlineStr">
@@ -6049,21 +6105,17 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C257" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D257" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C257" s="1" t="inlineStr"/>
+      <c r="D257" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for PackedAttention(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.TorchEmbedding</t>
+          <t>com.microsoft.PackedMultiHeadAttention</t>
         </is>
       </c>
       <c r="B258" s="1" t="inlineStr">
@@ -6072,16 +6124,16 @@
         </is>
       </c>
       <c r="C258" s="1" t="inlineStr"/>
-      <c r="D258" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for TorchEmbedding(1) node with name ''</t>
+      <c r="D258" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for PackedMultiHeadAttention(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.TransposeMatMul</t>
+          <t>com.microsoft.Pad</t>
         </is>
       </c>
       <c r="B259" s="1" t="inlineStr">
@@ -6103,7 +6155,7 @@
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Trilu</t>
+          <t>com.microsoft.QAttention</t>
         </is>
       </c>
       <c r="B260" s="1" t="inlineStr">
@@ -6111,21 +6163,17 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C260" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D260" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C260" s="1" t="inlineStr"/>
+      <c r="D260" s="4" t="inlineStr">
+        <is>
+          <t>FAIL run: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Non-zero status code returned while running DNNL_1244677347082871388_0 node. Name:'DnnlExecutionProvider_DNNL_1244677347082871388_0_0' Status Message: could not create a primitive descriptor for a matmul primitive</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.UnfoldTensor</t>
+          <t>com.microsoft.QGemm</t>
         </is>
       </c>
       <c r="B261" s="1" t="inlineStr">
@@ -6147,7 +6195,7 @@
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Unique</t>
+          <t>com.microsoft.QLinearAdd</t>
         </is>
       </c>
       <c r="B262" s="1" t="inlineStr">
@@ -6155,26 +6203,860 @@
           <t>DnnlExecutionProvider</t>
         </is>
       </c>
-      <c r="C262" s="1" t="inlineStr"/>
-      <c r="D262" s="5" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Unique(1) node with name ''</t>
+      <c r="C262" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D262" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
+          <t>com.microsoft.QLinearAveragePool</t>
+        </is>
+      </c>
+      <c r="B263" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C263" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D263" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearConcat</t>
+        </is>
+      </c>
+      <c r="B264" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C264" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D264" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearConv</t>
+        </is>
+      </c>
+      <c r="B265" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C265" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D265" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearGlobalAveragePool</t>
+        </is>
+      </c>
+      <c r="B266" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C266" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D266" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearLeakyRelu</t>
+        </is>
+      </c>
+      <c r="B267" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C267" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D267" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearMul</t>
+        </is>
+      </c>
+      <c r="B268" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C268" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D268" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearReduceMean</t>
+        </is>
+      </c>
+      <c r="B269" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C269" s="1" t="inlineStr"/>
+      <c r="D269" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QLinearReduceMean(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearSigmoid</t>
+        </is>
+      </c>
+      <c r="B270" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C270" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D270" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearSoftmax</t>
+        </is>
+      </c>
+      <c r="B271" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C271" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D271" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearWhere</t>
+        </is>
+      </c>
+      <c r="B272" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C272" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D272" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QMoE</t>
+        </is>
+      </c>
+      <c r="B273" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C273" s="1" t="inlineStr"/>
+      <c r="D273" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_input) of operator (QMoE) in node () is invalid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QOrderedAttention</t>
+        </is>
+      </c>
+      <c r="B274" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C274" s="1" t="inlineStr"/>
+      <c r="D274" s="6" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QOrderedGelu</t>
+        </is>
+      </c>
+      <c r="B275" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C275" s="1" t="inlineStr"/>
+      <c r="D275" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QOrderedGelu(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QOrderedLayerNormalization</t>
+        </is>
+      </c>
+      <c r="B276" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C276" s="1" t="inlineStr"/>
+      <c r="D276" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QOrderedLayerNormalization(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QOrderedLongformerAttention</t>
+        </is>
+      </c>
+      <c r="B277" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C277" s="1" t="inlineStr"/>
+      <c r="D277" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. Type Error: Type 'tensor(float)' of input parameter (InsertedPrecisionFreeCast_mask) of operator (QOrderedLongformerAttention) in node () is invalid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QOrderedMatMul</t>
+        </is>
+      </c>
+      <c r="B278" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C278" s="1" t="inlineStr"/>
+      <c r="D278" s="6" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QuantizeBFP</t>
+        </is>
+      </c>
+      <c r="B279" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C279" s="1" t="inlineStr"/>
+      <c r="D279" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QuantizeBFP(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QuantizeLinear</t>
+        </is>
+      </c>
+      <c r="B280" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C280" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D280" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QuantizeWithOrder</t>
+        </is>
+      </c>
+      <c r="B281" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C281" s="1" t="inlineStr"/>
+      <c r="D281" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QuantizeWithOrder(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QuickGelu</t>
+        </is>
+      </c>
+      <c r="B282" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C282" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D282" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Range</t>
+        </is>
+      </c>
+      <c r="B283" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C283" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D283" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.ReduceSumInteger</t>
+        </is>
+      </c>
+      <c r="B284" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C284" s="1" t="inlineStr"/>
+      <c r="D284" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ReduceSumInteger(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.RelativePositionBias</t>
+        </is>
+      </c>
+      <c r="B285" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C285" s="1" t="inlineStr"/>
+      <c r="D285" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RelativePositionBias(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.RemovePadding</t>
+        </is>
+      </c>
+      <c r="B286" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C286" s="1" t="inlineStr"/>
+      <c r="D286" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RemovePadding(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.RestorePadding</t>
+        </is>
+      </c>
+      <c r="B287" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C287" s="1" t="inlineStr"/>
+      <c r="D287" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RestorePadding(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Rfft</t>
+        </is>
+      </c>
+      <c r="B288" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C288" s="1" t="inlineStr"/>
+      <c r="D288" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Rfft(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.RotaryEmbedding</t>
+        </is>
+      </c>
+      <c r="B289" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C289" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D289" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SampleOp</t>
+        </is>
+      </c>
+      <c r="B290" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C290" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D290" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Sampling</t>
+        </is>
+      </c>
+      <c r="B291" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C291" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D291" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SkipGroupNorm</t>
+        </is>
+      </c>
+      <c r="B292" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C292" s="1" t="inlineStr"/>
+      <c r="D292" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for SkipGroupNorm(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SkipLayerNormalization</t>
+        </is>
+      </c>
+      <c r="B293" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C293" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D293" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SkipSimplifiedLayerNormalization</t>
+        </is>
+      </c>
+      <c r="B294" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C294" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D294" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Snpe</t>
+        </is>
+      </c>
+      <c r="B295" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C295" s="1" t="inlineStr"/>
+      <c r="D295" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Snpe(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SparseAttention</t>
+        </is>
+      </c>
+      <c r="B296" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C296" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D296" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SparseToDenseMatMul</t>
+        </is>
+      </c>
+      <c r="B297" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C297" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D297" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Tokenizer</t>
+        </is>
+      </c>
+      <c r="B298" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C298" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D298" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.TorchEmbedding</t>
+        </is>
+      </c>
+      <c r="B299" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C299" s="1" t="inlineStr"/>
+      <c r="D299" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for TorchEmbedding(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.TransposeMatMul</t>
+        </is>
+      </c>
+      <c r="B300" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C300" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D300" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Trilu</t>
+        </is>
+      </c>
+      <c r="B301" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C301" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D301" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.UnfoldTensor</t>
+        </is>
+      </c>
+      <c r="B302" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C302" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D302" s="3" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Unique</t>
+        </is>
+      </c>
+      <c r="B303" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C303" s="1" t="inlineStr"/>
+      <c r="D303" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Unique(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
           <t>com.microsoft.WhisperBeamSearch</t>
         </is>
       </c>
-      <c r="B263" s="1" t="inlineStr">
-        <is>
-          <t>DnnlExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C263" s="1" t="inlineStr"/>
-      <c r="D263" s="6" t="inlineStr">
+      <c r="B304" s="1" t="inlineStr">
+        <is>
+          <t>DnnlExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C304" s="1" t="inlineStr"/>
+      <c r="D304" s="6" t="inlineStr">
         <is>
           <t>NOT TESTED (model unavailable)</t>
         </is>
@@ -6229,10 +7111,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="3">
@@ -6242,10 +7124,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="C3" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -6258,7 +7140,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5">
@@ -6271,7 +7153,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="6">
@@ -6294,10 +7176,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C7" t="n">
-        <v>17.6</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="8">
@@ -6308,7 +7190,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-11-18 14:49:16</t>
+          <t>2025-11-18 15:01:49</t>
         </is>
       </c>
     </row>
